--- a/00.Document/04.PM문서/(PM)시스템_1챕터_우선순위_180416_임주영v0.1.xlsx
+++ b/00.Document/04.PM문서/(PM)시스템_1챕터_우선순위_180416_임주영v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Documents\GitHub\3DProject\00.Document\04.PM문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시스템!$A$10:$C$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시스템!$A$10:$H$10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t>우선순위</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,307 +72,319 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>작업 종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 작업 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포커싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 획득시 아이템 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위기 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위기 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀로 클릭시 타이틀로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 시 게임이 종료됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임시작 클릭시 게임이 시작됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 닫기 클릭시 창 닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용 후 빈 아이템창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 상호작용시 아이템 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장소리 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스게이지 100이상일때 게임오버씬 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 및 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 시작시 흐릿한 화면이었다가 선명해지는 블러 연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작동시 액자가 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 가능 오브젝트 클릭시 인벤토리 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스 게이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">특정 시점에서 가스게이지 출력 및 시작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스게이지 80% 이상일 경우 화면에 피 텍스쳐 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스게이지 80% 이상일 경우 화면 깜빡임 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위기 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작동시 잠겨있는 문이 열리는 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">획득시 이미지와 텍스트 상자 노출 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스게이지 80% 이상일 경우 게이지바 빨갛게 깜빡임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 이동포인트 클릭시 해당 지점으로 플레이어 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 이동포인트 클릭시 해당 지점으로 플레이어 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 순위도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핵심적으로 가장 먼저 구현해야하며, 미구현시 게임 진행에 문제가 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획서에 명시되어 있으나 해당 기능이 없어도 불편함을 초래하지 않으며 게임 진행은 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획서에 명시되어 있지 않으며 시간이 남을때 구현을 진행하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획서에 명시되어 있고 우선순위 낮으나 구현시 퀄리티가 상승하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 기능이 없으면 다소 불편을 초래하거나 미흡해보이지만, 게임 진행은 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어시 다음 챕터로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포커싱 로딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래쉬 라이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래쉬라이트 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래쉬라이트 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 구현 우선 순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허지훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터 재시작 클릭시 챕터를 재시작함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허지훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우정윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>완료여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업 종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업 시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 작업 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포커싱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 획득시 아이템 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위기 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위기 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀로 클릭시 타이틀로 돌아감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료 시 게임이 종료됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임시작 클릭시 게임이 시작됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리 닫기 클릭시 창 닫기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 사용 후 빈 아이템창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 상호작용시 아이템 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심장소리 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 오버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 오버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가스게이지 100이상일때 게임오버씬 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사 및 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챕터1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 연출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챕터1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처음 시작시 흐릿한 화면이었다가 선명해지는 블러 연출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매우 낮음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트리거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작동시 액자가 움직임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매우 높음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매우 높음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용 가능 오브젝트 클릭시 인벤토리 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가스 게이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">특정 시점에서 가스게이지 출력 및 시작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가스게이지 80% 이상일 경우 화면에 피 텍스쳐 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가스게이지 80% 이상일 경우 화면 깜빡임 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위기 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작동시 잠겨있는 문이 열리는 애니메이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챕터1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">획득시 이미지와 텍스트 상자 노출 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가스게이지 80% 이상일 경우 게이지바 빨갛게 깜빡임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1번 이동포인트 클릭시 해당 지점으로 플레이어 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번 이동포인트 클릭시 해당 지점으로 플레이어 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선 순위도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핵심적으로 가장 먼저 구현해야하며, 미구현시 게임 진행에 문제가 발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획서에 명시되어 있으나 해당 기능이 없어도 불편함을 초래하지 않으며 게임 진행은 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획서에 명시되어 있지 않으며 시간이 남을때 구현을 진행하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획서에 명시되어 있고 우선순위 낮으나 구현시 퀄리티가 상승하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 기능이 없으면 다소 불편을 초래하거나 미흡해보이지만, 게임 진행은 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클리어시 다음 챕터로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포커싱 로딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플래쉬 라이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플래쉬라이트 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플래쉬라이트 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 구현 우선 순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>높음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매우 높음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>높음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허지훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챕터 재시작 클릭시 챕터를 재시작함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +722,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1045,7 +1060,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1054,10 +1069,10 @@
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -1074,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -1091,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1108,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1125,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -1142,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -1165,39 +1180,39 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G11" s="9">
         <v>4.2300000000000004</v>
@@ -1206,19 +1221,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="9">
         <v>4.1900000000000004</v>
@@ -1226,52 +1241,52 @@
       <c r="G12" s="9">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F13" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G13" s="9">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F14" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G14" s="9">
         <v>4.2300000000000004</v>
@@ -1280,19 +1295,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" s="10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F15" s="9">
         <v>4.1900000000000004</v>
@@ -1300,52 +1315,52 @@
       <c r="G15" s="9">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="E16" s="10" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F16" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G16" s="9">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F17" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G17" s="9">
         <v>4.2300000000000004</v>
@@ -1354,16 +1369,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>74</v>
@@ -1374,52 +1389,52 @@
       <c r="G18" s="9">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F19" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G19" s="9">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>72</v>
-      </c>
+        <v>4.28</v>
+      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F20" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G20" s="9">
         <v>4.28</v>
@@ -1428,46 +1443,46 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F21" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G21" s="9">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G22" s="9">
         <v>4.28</v>
@@ -1476,22 +1491,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F23" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G23" s="9">
         <v>4.28</v>
@@ -1500,22 +1515,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G24" s="9">
         <v>4.28</v>
@@ -1524,46 +1539,46 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="14" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G25" s="9">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="14" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="F26" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G26" s="9">
         <v>4.28</v>
@@ -1571,23 +1586,23 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="14" t="s">
-        <v>78</v>
+      <c r="A27" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="F27" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G27" s="9">
         <v>4.28</v>
@@ -1595,95 +1610,95 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G28" s="9">
         <v>4.28</v>
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="16" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="F29" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G29" s="9">
         <v>4.28</v>
       </c>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="16" t="s">
-        <v>79</v>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="F30" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G30" s="9">
         <v>4.28</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="16" t="s">
-        <v>77</v>
+      <c r="A31" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>57</v>
+        <v>24</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="F31" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G31" s="9">
         <v>4.28</v>
@@ -1692,22 +1707,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="17" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F32" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G32" s="9">
         <v>4.28</v>
@@ -1715,119 +1730,119 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="9">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G33" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="9">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="G33" s="9">
-        <v>4.28</v>
-      </c>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="C34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>32</v>
+        <v>86</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="F34" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.26</v>
       </c>
       <c r="G34" s="9">
         <v>5.0999999999999996</v>
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="15" t="s">
-        <v>63</v>
+    <row r="35" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F35" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.26</v>
       </c>
       <c r="G35" s="9">
         <v>5.0999999999999996</v>
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="21" t="s">
-        <v>83</v>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="9">
-        <v>4.1900000000000004</v>
+        <v>19</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="30">
+        <v>5.2</v>
       </c>
       <c r="G36" s="9">
-        <v>5.0999999999999996</v>
+        <v>5.23</v>
       </c>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="9">
-        <v>4.1900000000000004</v>
+        <v>4.26</v>
       </c>
       <c r="G37" s="9">
         <v>5.0999999999999996</v>
@@ -1835,11 +1850,7 @@
       <c r="H37" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:C37"/>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
+  <autoFilter ref="A10:H10"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
